--- a/biology/Histoire de la zoologie et de la botanique/Norman_I._Platnick/Norman_I._Platnick.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Norman_I._Platnick/Norman_I._Platnick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Norm Platnick, de son nom complet Norman Ira Platnick, est un arachnologiste américain né le 30 décembre 1951 à Bluefield (Virginie-Occidentale) et mort le 8 avril 2020[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norm Platnick, de son nom complet Norman Ira Platnick, est un arachnologiste américain né le 30 décembre 1951 à Bluefield (Virginie-Occidentale) et mort le 8 avril 2020.
 Il est professeur émérite de la Richard Gilder Graduate School et conservateur émérite de la Peter J. Solomon Family au département des invertébrés du Muséum américain d'histoire naturelle. Au cours de sa carrière, il décrit 159 genres et plus de 2 000 espèces d'araignées nouveaux pour la science.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nommé docteur en philosophie (PhD) de l'université Harvard en 1973, Norman I. Platnick a décrit des milliers d'espèces d'araignées du monde entier appartenant à des familles variées (Actinopodidae, Ctenizidae, Gradungulidae, Hexathelidae, Lamponidae, Mecicobothriidae, Microstigmatidae…) ainsi que des ricinules. Il est également le créateur en 2000 du World Spider Catalog, un site du muséum américain d'histoire naturelle qui répertorie la littérature sur l'arachnologie et maintient une liste de toutes les espèces d'araignées qui ont déjà été décrites[2]. Cette liste fait suite aux travaux de Carl Friedrich Roewer (1881-1963), de Pierre Bonnet (1897-1990) et de Paolo Marcello Brignoli (1942-1986).
-Norman I. Platnick est l'un des membres fondateurs de la Willi Hennig Society (en), en 1980, et son quatrième président (1991-1992). En collaboration avec l'ichtyologiste Gareth J. Nelson, il contribue à la systématique cladistique dans ses relations avec la biogéographie de la vicariance des espèces. À ce titre, Platnick figure parmi les fondateurs de la biogéographie de la vicariance, méthode d'analyse de la biogéographie historique[3].
-Il appartient au courant « pattern » de l'école de systématique cladistique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nommé docteur en philosophie (PhD) de l'université Harvard en 1973, Norman I. Platnick a décrit des milliers d'espèces d'araignées du monde entier appartenant à des familles variées (Actinopodidae, Ctenizidae, Gradungulidae, Hexathelidae, Lamponidae, Mecicobothriidae, Microstigmatidae…) ainsi que des ricinules. Il est également le créateur en 2000 du World Spider Catalog, un site du muséum américain d'histoire naturelle qui répertorie la littérature sur l'arachnologie et maintient une liste de toutes les espèces d'araignées qui ont déjà été décrites. Cette liste fait suite aux travaux de Carl Friedrich Roewer (1881-1963), de Pierre Bonnet (1897-1990) et de Paolo Marcello Brignoli (1942-1986).
+Norman I. Platnick est l'un des membres fondateurs de la Willi Hennig Society (en), en 1980, et son quatrième président (1991-1992). En collaboration avec l'ichtyologiste Gareth J. Nelson, il contribue à la systématique cladistique dans ses relations avec la biogéographie de la vicariance des espèces. À ce titre, Platnick figure parmi les fondateurs de la biogéographie de la vicariance, méthode d'analyse de la biogéographie historique.
+Il appartient au courant « pattern » de l'école de systématique cladistique.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres suivants sont dédiés à Norm Platnick :
 Normplatnicka Rix &amp; Harvey, 2010
@@ -633,6 +649,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
